--- a/Data/EC/NIT-8909022662.xlsx
+++ b/Data/EC/NIT-8909022662.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4322EB6-7BB1-4770-8F8E-E37E93E736A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9531052C-B5B8-42F3-864D-832ED16081D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D0613ED-72D4-45BD-9DA5-5FAFE22F90BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0AD6AE3A-715B-41D5-ACD9-EF427CFBD418}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="69">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -59,169 +59,157 @@
     <t>NIT</t>
   </si>
   <si>
-    <t>AGENCIA DE ADUANAS MARIO LONDOÑO S.A NIV EL 1</t>
+    <t>AGENCIA DE ADUANAS TCC. S.A.S NIVEL 1</t>
   </si>
   <si>
     <t>CC</t>
   </si>
   <si>
+    <t>84078595</t>
+  </si>
+  <si>
+    <t>ELIAS MOISES PASSO SIERRA</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1143330663</t>
+  </si>
+  <si>
+    <t>KAREN MARLEN AMAYA ROCHA</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>1098646371</t>
   </si>
   <si>
     <t>LAURA ANDREA FERRER SANABRIA</t>
   </si>
   <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
     <t>2202</t>
   </si>
   <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>84078595</t>
-  </si>
-  <si>
-    <t>ELIAS MOISES PASSO SIERRA</t>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
   </si>
   <si>
     <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1143330663</t>
-  </si>
-  <si>
-    <t>KAREN MARLEN AMAYA ROCHA</t>
-  </si>
-  <si>
-    <t>66942000</t>
-  </si>
-  <si>
-    <t>ROSA MARDORY RAMIREZ GIRALDO</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -320,7 +308,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -333,9 +323,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -535,23 +523,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,10 +567,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,7 +623,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125F612-71C3-2590-8D9E-0C2033447C3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A41C3B5-44E6-A4B0-9968-AD5D7B4B0376}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -986,8 +974,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38491968-B042-46AC-A7D3-C4CFFEB925ED}">
-  <dimension ref="B2:J112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0771AB14-1EB2-4EC9-A93E-B98124B131B2}">
+  <dimension ref="B2:J110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -998,7 +986,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1011,7 +999,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1056,7 +1044,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1088,12 +1076,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4376865</v>
+        <v>3490447</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1104,17 +1092,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1141,13 +1129,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1164,10 +1152,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>37717</v>
+        <v>32640</v>
       </c>
       <c r="G16" s="18">
-        <v>1798056</v>
+        <v>816000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1178,19 +1166,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>70720</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1798056</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1207,13 +1195,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>71922</v>
+        <v>32640</v>
       </c>
       <c r="G18" s="18">
-        <v>1798056</v>
+        <v>816000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1224,19 +1212,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>71922</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1798056</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1256,10 +1244,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>71922</v>
+        <v>32640</v>
       </c>
       <c r="G20" s="18">
-        <v>1798056</v>
+        <v>816000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1270,19 +1258,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>71922</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1798056</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1299,13 +1287,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>71922</v>
+        <v>32640</v>
       </c>
       <c r="G22" s="18">
-        <v>1798056</v>
+        <v>816000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1316,19 +1304,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>71922</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>1798056</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1345,13 +1333,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>71922</v>
+        <v>32640</v>
       </c>
       <c r="G24" s="18">
-        <v>1798056</v>
+        <v>816000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1362,19 +1350,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>71922</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>1798056</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1385,16 +1373,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>1088</v>
+        <v>32640</v>
       </c>
       <c r="G26" s="18">
         <v>816000</v>
@@ -1408,19 +1396,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1431,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>32640</v>
@@ -1454,19 +1442,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1477,13 +1465,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>32640</v>
@@ -1500,19 +1488,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1523,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>32640</v>
@@ -1546,19 +1534,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F33" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1569,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>32640</v>
@@ -1592,19 +1580,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F35" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1615,13 +1603,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>32640</v>
@@ -1638,19 +1626,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1661,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>32640</v>
@@ -1684,19 +1672,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1707,13 +1695,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>32640</v>
@@ -1730,19 +1718,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1753,13 +1741,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>32640</v>
@@ -1776,19 +1764,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1799,13 +1787,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>32640</v>
@@ -1822,19 +1810,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1845,13 +1833,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>32640</v>
@@ -1868,19 +1856,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G47" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1891,13 +1879,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>32640</v>
@@ -1914,19 +1902,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G49" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1937,19 +1925,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F50" s="18">
-        <v>32640</v>
+        <v>71922</v>
       </c>
       <c r="G50" s="18">
-        <v>816000</v>
+        <v>1768000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1960,13 +1948,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F51" s="18">
         <v>32640</v>
@@ -1983,19 +1971,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2006,19 +1994,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F53" s="18">
-        <v>32640</v>
+        <v>71922</v>
       </c>
       <c r="G53" s="18">
-        <v>816000</v>
+        <v>1768000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2029,13 +2017,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F54" s="18">
         <v>32640</v>
@@ -2052,19 +2040,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F55" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2075,19 +2063,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
-        <v>32640</v>
+        <v>71922</v>
       </c>
       <c r="G56" s="18">
-        <v>816000</v>
+        <v>1768000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2098,13 +2086,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F57" s="18">
         <v>32640</v>
@@ -2121,19 +2109,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G58" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2144,19 +2132,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F59" s="18">
-        <v>32640</v>
+        <v>71922</v>
       </c>
       <c r="G59" s="18">
-        <v>816000</v>
+        <v>1768000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2167,13 +2155,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>32640</v>
@@ -2190,19 +2178,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G61" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2213,19 +2201,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
-        <v>32640</v>
+        <v>71922</v>
       </c>
       <c r="G62" s="18">
-        <v>816000</v>
+        <v>1768000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2236,13 +2224,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
         <v>32640</v>
@@ -2259,19 +2247,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F64" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2282,19 +2270,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>32640</v>
+        <v>71922</v>
       </c>
       <c r="G65" s="18">
-        <v>816000</v>
+        <v>1768000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2305,13 +2293,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F66" s="18">
         <v>32640</v>
@@ -2328,19 +2316,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F67" s="18">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="G67" s="18">
-        <v>816000</v>
+        <v>1000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2351,19 +2339,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F68" s="18">
-        <v>32640</v>
+        <v>71922</v>
       </c>
       <c r="G68" s="18">
-        <v>816000</v>
+        <v>1768000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2374,19 +2362,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F69" s="18">
-        <v>34666</v>
+        <v>32640</v>
       </c>
       <c r="G69" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2397,13 +2385,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F70" s="18">
         <v>40000</v>
@@ -2420,19 +2408,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F71" s="18">
-        <v>40000</v>
+        <v>71922</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>1768000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2443,19 +2431,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F72" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G72" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2466,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F73" s="18">
         <v>40000</v>
@@ -2489,19 +2477,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F74" s="18">
-        <v>40000</v>
+        <v>70720</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>1768000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2512,19 +2500,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F75" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G75" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2535,13 +2523,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2558,19 +2546,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F77" s="18">
-        <v>40000</v>
+        <v>37717</v>
       </c>
       <c r="G77" s="18">
-        <v>1000000</v>
+        <v>1768000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2581,19 +2569,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F78" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G78" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2604,13 +2592,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F79" s="18">
         <v>40000</v>
@@ -2627,19 +2615,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F80" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G80" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2650,13 +2638,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F81" s="18">
         <v>40000</v>
@@ -2673,19 +2661,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F82" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G82" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2696,13 +2684,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F83" s="18">
         <v>40000</v>
@@ -2719,19 +2707,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G84" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2742,13 +2730,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F85" s="18">
         <v>40000</v>
@@ -2765,19 +2753,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F86" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G86" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2788,13 +2776,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F87" s="18">
         <v>40000</v>
@@ -2811,19 +2799,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F88" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G88" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2834,13 +2822,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F89" s="18">
         <v>40000</v>
@@ -2857,19 +2845,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F90" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G90" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2880,13 +2868,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F91" s="18">
         <v>40000</v>
@@ -2903,19 +2891,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G92" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2926,13 +2914,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F93" s="18">
         <v>40000</v>
@@ -2949,19 +2937,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F94" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G94" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2972,13 +2960,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F95" s="18">
         <v>40000</v>
@@ -2995,19 +2983,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F96" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G96" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3018,16 +3006,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F97" s="18">
-        <v>40000</v>
+        <v>34666</v>
       </c>
       <c r="G97" s="18">
         <v>1000000</v>
@@ -3041,19 +3029,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F98" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G98" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3064,19 +3052,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F99" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G99" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3087,19 +3075,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F100" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G100" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3110,19 +3098,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F101" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G101" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3133,19 +3121,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F102" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G102" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3156,121 +3144,75 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="F103" s="18">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="G103" s="18">
-        <v>1000000</v>
+        <v>816000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D104" s="17" t="s">
+      <c r="B104" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E104" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F104" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F105" s="18">
-        <v>443209</v>
-      </c>
-      <c r="G105" s="18">
-        <v>11080239</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F106" s="24">
-        <v>443209</v>
-      </c>
-      <c r="G106" s="24">
-        <v>11080239</v>
-      </c>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="26"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C111" s="32"/>
-      <c r="H111" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C112" s="32"/>
-      <c r="H112" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
+      <c r="F104" s="24">
+        <v>1088</v>
+      </c>
+      <c r="G104" s="24">
+        <v>816000</v>
+      </c>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="26"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" s="32"/>
+      <c r="H109" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="32"/>
+      <c r="H110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="H109:J109"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
